--- a/plantilla.xlsx
+++ b/plantilla.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\xlsx-templater\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80392CB-FCBA-4710-842E-3B9B8378378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E61998A-78F7-4D3C-A433-BAA47FDE61D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{14DFE14D-F8EB-4EDE-8E43-230DCEB009CA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nombre:</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>${age}</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>${image}</t>
   </si>
 </sst>
 </file>
@@ -397,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2652FF-31D0-4FEA-A575-6C9CA6B667C4}">
-  <dimension ref="F4:G5"/>
+  <dimension ref="F4:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,6 +427,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
